--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H2">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I2">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J2">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>82.353359479971</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N2">
-        <v>82.353359479971</v>
+        <v>0.047147</v>
       </c>
       <c r="O2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q2">
-        <v>1504.266116694948</v>
+        <v>0.3806535365272222</v>
       </c>
       <c r="R2">
-        <v>1504.266116694948</v>
+        <v>3.425881828745</v>
       </c>
       <c r="S2">
-        <v>0.1471774347746047</v>
+        <v>2.607962123642049E-05</v>
       </c>
       <c r="T2">
-        <v>0.1471774347746047</v>
+        <v>2.60796212364205E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H3">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I3">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J3">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.7452174093864</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N3">
-        <v>75.7452174093864</v>
+        <v>364.71218</v>
       </c>
       <c r="O3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q3">
-        <v>1383.56182152282</v>
+        <v>2944.598407778922</v>
       </c>
       <c r="R3">
-        <v>1383.56182152282</v>
+        <v>26501.3856700103</v>
       </c>
       <c r="S3">
-        <v>0.1353677234924399</v>
+        <v>0.2017425396039878</v>
       </c>
       <c r="T3">
-        <v>0.1353677234924399</v>
+        <v>0.2017425396039878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H4">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I4">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J4">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>156.460867215624</v>
+        <v>80.471891</v>
       </c>
       <c r="N4">
-        <v>156.460867215624</v>
+        <v>241.415673</v>
       </c>
       <c r="O4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q4">
-        <v>2857.913540229185</v>
+        <v>1949.132069920661</v>
       </c>
       <c r="R4">
-        <v>2857.913540229185</v>
+        <v>17542.18862928595</v>
       </c>
       <c r="S4">
-        <v>0.2796183328138067</v>
+        <v>0.1335404015605562</v>
       </c>
       <c r="T4">
-        <v>0.2796183328138067</v>
+        <v>0.1335404015605562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.24785615656817</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H5">
-        <v>1.24785615656817</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I5">
-        <v>0.03840464991936122</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J5">
-        <v>0.03840464991936122</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.353359479971</v>
+        <v>159.017985</v>
       </c>
       <c r="N5">
-        <v>82.353359479971</v>
+        <v>477.053955</v>
       </c>
       <c r="O5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q5">
-        <v>102.7651466411535</v>
+        <v>3851.618874690824</v>
       </c>
       <c r="R5">
-        <v>102.7651466411535</v>
+        <v>34664.56987221742</v>
       </c>
       <c r="S5">
-        <v>0.01005454453771241</v>
+        <v>0.2638850076513115</v>
       </c>
       <c r="T5">
-        <v>0.01005454453771241</v>
+        <v>0.2638850076513116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.24785615656817</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H6">
-        <v>1.24785615656817</v>
+        <v>3.963676</v>
       </c>
       <c r="I6">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J6">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>75.7452174093864</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N6">
-        <v>75.7452174093864</v>
+        <v>0.047147</v>
       </c>
       <c r="O6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q6">
-        <v>94.51913587489736</v>
+        <v>0.02076393693022222</v>
       </c>
       <c r="R6">
-        <v>94.51913587489736</v>
+        <v>0.186875432372</v>
       </c>
       <c r="S6">
-        <v>0.009247754636489462</v>
+        <v>1.422594455465917E-06</v>
       </c>
       <c r="T6">
-        <v>0.009247754636489462</v>
+        <v>1.422594455465917E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.24785615656817</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H7">
-        <v>1.24785615656817</v>
+        <v>3.963676</v>
       </c>
       <c r="I7">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J7">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>156.460867215624</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N7">
-        <v>156.460867215624</v>
+        <v>364.71218</v>
       </c>
       <c r="O7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q7">
-        <v>195.2406564170114</v>
+        <v>160.6223238637422</v>
       </c>
       <c r="R7">
-        <v>195.2406564170114</v>
+        <v>1445.60091477368</v>
       </c>
       <c r="S7">
-        <v>0.01910235074515935</v>
+        <v>0.0110046773942963</v>
       </c>
       <c r="T7">
-        <v>0.01910235074515935</v>
+        <v>0.0110046773942963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H8">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I8">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J8">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.353359479971</v>
+        <v>80.471891</v>
       </c>
       <c r="N8">
-        <v>82.353359479971</v>
+        <v>241.415673</v>
       </c>
       <c r="O8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q8">
-        <v>395.5459571765343</v>
+        <v>106.3215010104387</v>
       </c>
       <c r="R8">
-        <v>395.5459571765343</v>
+        <v>956.8935090939478</v>
       </c>
       <c r="S8">
-        <v>0.0387002264204516</v>
+        <v>0.007284378600385451</v>
       </c>
       <c r="T8">
-        <v>0.0387002264204516</v>
+        <v>0.007284378600385452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H9">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I9">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J9">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.7452174093864</v>
+        <v>159.017985</v>
       </c>
       <c r="N9">
-        <v>75.7452174093864</v>
+        <v>477.053955</v>
       </c>
       <c r="O9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q9">
-        <v>363.8068284151435</v>
+        <v>210.09859023762</v>
       </c>
       <c r="R9">
-        <v>363.8068284151435</v>
+        <v>1890.88731213858</v>
       </c>
       <c r="S9">
-        <v>0.03559486926240715</v>
+        <v>0.01439443254801126</v>
       </c>
       <c r="T9">
-        <v>0.03559486926240715</v>
+        <v>0.01439443254801127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.80303365490189</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H10">
-        <v>4.80303365490189</v>
+        <v>16.97948</v>
       </c>
       <c r="I10">
-        <v>0.147820584204763</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J10">
-        <v>0.147820584204763</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>156.460867215624</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N10">
-        <v>156.460867215624</v>
+        <v>0.047147</v>
       </c>
       <c r="O10">
-        <v>0.4973968200535305</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P10">
-        <v>0.4973968200535305</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q10">
-        <v>751.4868109117779</v>
+        <v>0.08894794928444444</v>
       </c>
       <c r="R10">
-        <v>751.4868109117779</v>
+        <v>0.80053154356</v>
       </c>
       <c r="S10">
-        <v>0.07352548852190426</v>
+        <v>6.094068764625167E-06</v>
       </c>
       <c r="T10">
-        <v>0.07352548852190426</v>
+        <v>6.094068764625169E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.92927833923327</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H11">
-        <v>3.92927833923327</v>
+        <v>16.97948</v>
       </c>
       <c r="I11">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J11">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.353359479971</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N11">
-        <v>82.353359479971</v>
+        <v>364.71218</v>
       </c>
       <c r="O11">
-        <v>0.2618053948890064</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P11">
-        <v>0.2618053948890064</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q11">
-        <v>323.5892715677409</v>
+        <v>688.0692406740444</v>
       </c>
       <c r="R11">
-        <v>323.5892715677409</v>
+        <v>6192.6231660664</v>
       </c>
       <c r="S11">
-        <v>0.03165998248671646</v>
+        <v>0.0471415170470306</v>
       </c>
       <c r="T11">
-        <v>0.03165998248671646</v>
+        <v>0.04714151704703061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.92927833923327</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H12">
-        <v>3.92927833923327</v>
+        <v>16.97948</v>
       </c>
       <c r="I12">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J12">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>75.7452174093864</v>
+        <v>80.471891</v>
       </c>
       <c r="N12">
-        <v>75.7452174093864</v>
+        <v>241.415673</v>
       </c>
       <c r="O12">
-        <v>0.2407977850574632</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P12">
-        <v>0.2407977850574632</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q12">
-        <v>297.6240420672167</v>
+        <v>455.4569545988933</v>
       </c>
       <c r="R12">
-        <v>297.6240420672167</v>
+        <v>4099.11259139004</v>
       </c>
       <c r="S12">
-        <v>0.02911954377789457</v>
+        <v>0.03120460924598094</v>
       </c>
       <c r="T12">
-        <v>0.02911954377789457</v>
+        <v>0.03120460924598095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.92927833923327</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H13">
-        <v>3.92927833923327</v>
+        <v>16.97948</v>
       </c>
       <c r="I13">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J13">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>156.460867215624</v>
+        <v>159.017985</v>
       </c>
       <c r="N13">
-        <v>156.460867215624</v>
+        <v>477.053955</v>
       </c>
       <c r="O13">
-        <v>0.4973968200535305</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P13">
-        <v>0.4973968200535305</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q13">
-        <v>614.7782964880042</v>
+        <v>900.0142319825999</v>
       </c>
       <c r="R13">
-        <v>614.7782964880042</v>
+        <v>8100.128087843399</v>
       </c>
       <c r="S13">
-        <v>0.06014992402474933</v>
+        <v>0.06166245161317581</v>
       </c>
       <c r="T13">
-        <v>0.06014992402474933</v>
+        <v>0.06166245161317582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.38789378134439</v>
+        <v>4.462671</v>
       </c>
       <c r="H14">
-        <v>3.38789378134439</v>
+        <v>13.388013</v>
       </c>
       <c r="I14">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J14">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>82.353359479971</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N14">
-        <v>82.353359479971</v>
+        <v>0.047147</v>
       </c>
       <c r="O14">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P14">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q14">
-        <v>279.0044344550129</v>
+        <v>0.070133849879</v>
       </c>
       <c r="R14">
-        <v>279.0044344550129</v>
+        <v>0.631204648911</v>
       </c>
       <c r="S14">
-        <v>0.02729780089978279</v>
+        <v>4.805063043373277E-06</v>
       </c>
       <c r="T14">
-        <v>0.02729780089978279</v>
+        <v>4.805063043373279E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.38789378134439</v>
+        <v>4.462671</v>
       </c>
       <c r="H15">
-        <v>3.38789378134439</v>
+        <v>13.388013</v>
       </c>
       <c r="I15">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J15">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>75.7452174093864</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N15">
-        <v>75.7452174093864</v>
+        <v>364.71218</v>
       </c>
       <c r="O15">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P15">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q15">
-        <v>256.616751027839</v>
+        <v>542.53015634426</v>
       </c>
       <c r="R15">
-        <v>256.616751027839</v>
+        <v>4882.77140709834</v>
       </c>
       <c r="S15">
-        <v>0.02510738938895464</v>
+        <v>0.03717023389793842</v>
       </c>
       <c r="T15">
-        <v>0.02510738938895464</v>
+        <v>0.03717023389793842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.38789378134439</v>
+        <v>4.462671</v>
       </c>
       <c r="H16">
-        <v>3.38789378134439</v>
+        <v>13.388013</v>
       </c>
       <c r="I16">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J16">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>156.460867215624</v>
+        <v>80.471891</v>
       </c>
       <c r="N16">
-        <v>156.460867215624</v>
+        <v>241.415673</v>
       </c>
       <c r="O16">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P16">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q16">
-        <v>530.0727990635629</v>
+        <v>359.119574280861</v>
       </c>
       <c r="R16">
-        <v>530.0727990635629</v>
+        <v>3232.076168527749</v>
       </c>
       <c r="S16">
-        <v>0.05186233602161922</v>
+        <v>0.02460427022765792</v>
       </c>
       <c r="T16">
-        <v>0.05186233602161922</v>
+        <v>0.02460427022765792</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.858261817088589</v>
+        <v>4.462671</v>
       </c>
       <c r="H17">
-        <v>0.858261817088589</v>
+        <v>13.388013</v>
       </c>
       <c r="I17">
-        <v>0.0264142981953076</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J17">
-        <v>0.0264142981953076</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>82.353359479971</v>
+        <v>159.017985</v>
       </c>
       <c r="N17">
-        <v>82.353359479971</v>
+        <v>477.053955</v>
       </c>
       <c r="O17">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P17">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q17">
-        <v>70.68074395062969</v>
+        <v>709.644950137935</v>
       </c>
       <c r="R17">
-        <v>70.68074395062969</v>
+        <v>6386.804551241415</v>
       </c>
       <c r="S17">
-        <v>0.006915405769738476</v>
+        <v>0.04861972827254243</v>
       </c>
       <c r="T17">
-        <v>0.006915405769738476</v>
+        <v>0.04861972827254245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.858261817088589</v>
+        <v>3.718923666666667</v>
       </c>
       <c r="H18">
-        <v>0.858261817088589</v>
+        <v>11.156771</v>
       </c>
       <c r="I18">
-        <v>0.0264142981953076</v>
+        <v>0.09199996889567036</v>
       </c>
       <c r="J18">
-        <v>0.0264142981953076</v>
+        <v>0.09199996889567039</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>75.7452174093864</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N18">
-        <v>75.7452174093864</v>
+        <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P18">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q18">
-        <v>65.00922792955019</v>
+        <v>0.05844536470411111</v>
       </c>
       <c r="R18">
-        <v>65.00922792955019</v>
+        <v>0.5260082823369999</v>
       </c>
       <c r="S18">
-        <v>0.006360504499277416</v>
+        <v>4.004252760695609E-06</v>
       </c>
       <c r="T18">
-        <v>0.006360504499277416</v>
+        <v>4.004252760695611E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H19">
+        <v>11.156771</v>
+      </c>
+      <c r="I19">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J19">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N19">
+        <v>364.71218</v>
+      </c>
+      <c r="O19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q19">
+        <v>452.1122525745311</v>
+      </c>
+      <c r="R19">
+        <v>4069.010273170779</v>
+      </c>
+      <c r="S19">
+        <v>0.03097545450663487</v>
+      </c>
+      <c r="T19">
+        <v>0.03097545450663488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H20">
+        <v>11.156771</v>
+      </c>
+      <c r="I20">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J20">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>80.471891</v>
+      </c>
+      <c r="N20">
+        <v>241.415673</v>
+      </c>
+      <c r="O20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q20">
+        <v>299.2688199413203</v>
+      </c>
+      <c r="R20">
+        <v>2693.419379471883</v>
+      </c>
+      <c r="S20">
+        <v>0.02050373035581137</v>
+      </c>
+      <c r="T20">
+        <v>0.02050373035581137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H21">
+        <v>11.156771</v>
+      </c>
+      <c r="I21">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J21">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>159.017985</v>
+      </c>
+      <c r="N21">
+        <v>477.053955</v>
+      </c>
+      <c r="O21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q21">
+        <v>591.375747842145</v>
+      </c>
+      <c r="R21">
+        <v>5322.381730579305</v>
+      </c>
+      <c r="S21">
+        <v>0.04051677978046342</v>
+      </c>
+      <c r="T21">
+        <v>0.04051677978046343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.039172</v>
+      </c>
+      <c r="H22">
+        <v>3.117516</v>
+      </c>
+      <c r="I22">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J22">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.047147</v>
+      </c>
+      <c r="O22">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P22">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.01633128076133333</v>
+      </c>
+      <c r="R22">
+        <v>0.146981526852</v>
+      </c>
+      <c r="S22">
+        <v>1.118900983941746E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.118900983941746E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.039172</v>
+      </c>
+      <c r="H23">
+        <v>3.117516</v>
+      </c>
+      <c r="I23">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J23">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N23">
+        <v>364.71218</v>
+      </c>
+      <c r="O23">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P23">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q23">
+        <v>126.3328951716533</v>
+      </c>
+      <c r="R23">
+        <v>1136.99605654488</v>
+      </c>
+      <c r="S23">
+        <v>0.00865541427996562</v>
+      </c>
+      <c r="T23">
+        <v>0.008655414279965624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.039172</v>
+      </c>
+      <c r="H24">
+        <v>3.117516</v>
+      </c>
+      <c r="I24">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J24">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>80.471891</v>
+      </c>
+      <c r="N24">
+        <v>241.415673</v>
+      </c>
+      <c r="O24">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P24">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q24">
+        <v>83.62413591425199</v>
+      </c>
+      <c r="R24">
+        <v>752.617223228268</v>
+      </c>
+      <c r="S24">
+        <v>0.00572931966103164</v>
+      </c>
+      <c r="T24">
+        <v>0.005729319661031642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.858261817088589</v>
-      </c>
-      <c r="H19">
-        <v>0.858261817088589</v>
-      </c>
-      <c r="I19">
-        <v>0.0264142981953076</v>
-      </c>
-      <c r="J19">
-        <v>0.0264142981953076</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>156.460867215624</v>
-      </c>
-      <c r="N19">
-        <v>156.460867215624</v>
-      </c>
-      <c r="O19">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="P19">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="Q19">
-        <v>134.2843881997379</v>
-      </c>
-      <c r="R19">
-        <v>134.2843881997379</v>
-      </c>
-      <c r="S19">
-        <v>0.01313838792629171</v>
-      </c>
-      <c r="T19">
-        <v>0.01313838792629171</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.039172</v>
+      </c>
+      <c r="H25">
+        <v>3.117516</v>
+      </c>
+      <c r="I25">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J25">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>159.017985</v>
+      </c>
+      <c r="N25">
+        <v>477.053955</v>
+      </c>
+      <c r="O25">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P25">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q25">
+        <v>165.24703750842</v>
+      </c>
+      <c r="R25">
+        <v>1487.22333757578</v>
+      </c>
+      <c r="S25">
+        <v>0.01132152925197364</v>
+      </c>
+      <c r="T25">
+        <v>0.01132152925197365</v>
       </c>
     </row>
   </sheetData>
